--- a/src/main/resources/poi/report_priceAnalysisGetOut.xlsx
+++ b/src/main/resources/poi/report_priceAnalysisGetOut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9827B65E-1827-43EA-A803-BE2F9EF33203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCA7C94-9619-47E5-9FCF-71A1954263F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4176" yWindow="3888" windowWidth="17280" windowHeight="5328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;% Page Language="C#" EnableEventValidation = "false" AutoEventWireup="true"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,6 +119,10 @@
   </si>
   <si>
     <t>t.latestUnitPrice}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;% Page Language="C#" EnableEventValidation = "false" AutoEventWireup="true" CodeFile="ExportGridView.aspx.cs" Inherits="ExportGridView" %&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,12 +225,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -559,97 +565,98 @@
     <col min="10" max="12" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+    <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/poi/report_priceAnalysisGetOut.xlsx
+++ b/src/main/resources/poi/report_priceAnalysisGetOut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCA7C94-9619-47E5-9FCF-71A1954263F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61BDB8B-71B9-4DA8-8D80-2B0EE60E7E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="3888" windowWidth="17280" windowHeight="5328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -226,9 +226,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -237,6 +234,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:L3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -566,17 +566,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -597,22 +597,22 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -635,22 +635,22 @@
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
